--- a/config/credenciales.xlsx
+++ b/config/credenciales.xlsx
@@ -37,7 +37,7 @@
     <t xml:space="preserve">77528709-8</t>
   </si>
   <si>
-    <t xml:space="preserve">test_aguasandinaS1</t>
+    <t xml:space="preserve">@test_aguasandinaS1</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.aguasandinas.cl/web/aguasandinas/descarga-tu-boleta</t>
@@ -54,7 +54,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -84,13 +84,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FF0563C1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -155,7 +148,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -240,13 +233,13 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="59.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="35.09"/>
   </cols>
